--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="8760"/>
+    <workbookView windowWidth="24610" windowHeight="11890"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -39,6 +39,333 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TableIdInvalidError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTableDataInvalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnttNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //改功能暂时关闭gate 用,gate写死了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kServiceNotOpen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //服务器关闭请重新登录 gate 用,gate写死了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kServerCrush </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //未知参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kInvalidParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //login server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //找不到账号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginAccountPlayerFull </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginCreatePlayerUnLoadAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginCreatePlayerConnectionHasNotAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginUnLogin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginIng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginPlayerGuidError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginEnteringGame </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginPlaying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginCreatingPlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //已经登录了，等待进入游戏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginWaitingEnterGame </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginEnterGuid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginAccountNameEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginCreateConnectionAccountEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginEnterGameConnectionAccountEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginUnknownError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginSessionDisconnect = 1016,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //在别的地方登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kLoginBeKickByAnOtherAccount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneNotFound </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneNotFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //所有场景已经满了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneMainSceneFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kNoUse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //当前服务器不可进入，请重新进入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterGameGsCrash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //当前服务器不可切换场景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneServerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //换场景参数错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneParamError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //场景已经满了不能切换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneSceneFull </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //您所要切换的场景不存在</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneSceneNotFound </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //您当前就在这个场景，无需切换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneYouInCurrentScene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneEnterCrossRoomScene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneGsInfoNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneGsFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneYourSceneIsNull = 4013,//你的场景为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneChangeSceneOffLine = 4014,//你已经下线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneChangingScene = 4015,//正在切换场景中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kEnterSceneChangingGs = 4016,//正在切换gs中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kChangeScenePlayerQueueComponentNull = 4017,//玩家切换场景队列组件未找到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kChangeScenePlayerQueueComponentFull = 4018,//玩家切换场景队列组件已满</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kChangeScenePlayerQueueComponentGsNull = 4019,//找不到玩家的gs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kChangeScenePlayerQueueComponentEmpty = 4020,//玩家切换场景队列为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kChangeSceneEnQueueNotSameGs = 4021,//不是同一个场景切换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //检测进入副本场景未找到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kCheckEnterSceneSceneParam = 4022,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //该副本您没有归属权,不能进入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kCheckEnterSceneCreator = 4023,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamNotInApplicants = 5000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamPlayerId = 5001,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamMembersFull = 5002,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamMemberInTeam = 5003,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamMemberNotInTeam = 5004,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamKickSelf = 5005,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamKickNotLeader = 5006,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamAppointSelf = 5007,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamAppointLeaderNotLeader = 5008,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamFull = 5009,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamInApplicantList = 5010,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamNotInApplicantList = 5011,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamListMaxSize = 5012,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamHasNotTeamId = 5013,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamDismissNotLeader = 5014,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamJoinTeamMemberListToMax = 5013,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamCreateTeamMaxMemberSize = 5014,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kTeamPlayerNotFound = 5015,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //mission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kMissionTypeRepeated = 6000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kMissionAlreadyCompleted = 6001,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kMissionIdNotInRewardList = 6002,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kPlayerMissionComponentNotFound = 6003,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kMissionIdRepeated = 6004,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kConditionIdOutOfRange = 6005,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kMissionNotInProgress = 6006,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //bag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDeleteItemFindGuid = 7000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDeleteItemAlreadyHasGuid = 7001,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagAddItemHasNotBaseComponent = 7002,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagAddItemInvalidGuid = 7003,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagAddItemInvalidParam = 7004,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagAddItemBagFull = 7005,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagAdequateAddItemSize = 7006,//不可叠加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagAdequateItem = 7007,//不够物品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDelItemPos = 7008,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDelItemConfig = 7009,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDelItemGuid = 7010,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDelItemFindItem = 7011,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDelItemSize = 7012,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    kBagDelItemNotAdequateSize = 7013,</t>
   </si>
 </sst>
 </file>
@@ -977,13 +1304,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -998,6 +1325,551 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -41,331 +41,271 @@
     <t>common</t>
   </si>
   <si>
-    <t xml:space="preserve">    kOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   TableIdInvalidError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTableDataInvalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnttNull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //改功能暂时关闭gate 用,gate写死了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kServiceNotOpen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //服务器关闭请重新登录 gate 用,gate写死了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kServerCrush </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //未知参数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kInvalidParameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //login server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //找不到账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginAccountNotFound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginAccountPlayerFull </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginCreatePlayerUnLoadAccount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginCreatePlayerConnectionHasNotAccount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginUnLogin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginIng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginPlayerGuidError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginEnteringGame </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginPlaying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginCreatingPlayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //已经登录了，等待进入游戏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginWaitingEnterGame </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginEnterGuid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginAccountNameEmpty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginCreateConnectionAccountEmpty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginEnterGameConnectionAccountEmpty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginUnknownError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginSessionDisconnect = 1016,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //在别的地方登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kLoginBeKickByAnOtherAccount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneNotFound </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneNotFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //所有场景已经满了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneMainSceneFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kNoUse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //当前服务器不可进入，请重新进入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterGameGsCrash </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //当前服务器不可切换场景</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneServerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //换场景参数错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneParamError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //场景已经满了不能切换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneSceneFull </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //您所要切换的场景不存在</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneSceneNotFound </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //您当前就在这个场景，无需切换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneYouInCurrentScene </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneEnterCrossRoomScene </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneGsInfoNull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneGsFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneYourSceneIsNull = 4013,//你的场景为空</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneChangeSceneOffLine = 4014,//你已经下线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneChangingScene = 4015,//正在切换场景中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kEnterSceneChangingGs = 4016,//正在切换gs中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kChangeScenePlayerQueueComponentNull = 4017,//玩家切换场景队列组件未找到</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kChangeScenePlayerQueueComponentFull = 4018,//玩家切换场景队列组件已满</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kChangeScenePlayerQueueComponentGsNull = 4019,//找不到玩家的gs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kChangeScenePlayerQueueComponentEmpty = 4020,//玩家切换场景队列为空</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kChangeSceneEnQueueNotSameGs = 4021,//不是同一个场景切换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //检测进入副本场景未找到</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kCheckEnterSceneSceneParam = 4022,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //该副本您没有归属权,不能进入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kCheckEnterSceneCreator = 4023,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamNotInApplicants = 5000,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamPlayerId = 5001,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamMembersFull = 5002,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamMemberInTeam = 5003,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamMemberNotInTeam = 5004,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamKickSelf = 5005,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamKickNotLeader = 5006,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamAppointSelf = 5007,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamAppointLeaderNotLeader = 5008,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamFull = 5009,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamInApplicantList = 5010,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamNotInApplicantList = 5011,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamListMaxSize = 5012,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamHasNotTeamId = 5013,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamDismissNotLeader = 5014,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamJoinTeamMemberListToMax = 5013,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamCreateTeamMaxMemberSize = 5014,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kTeamPlayerNotFound = 5015,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //mission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kMissionTypeRepeated = 6000,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kMissionAlreadyCompleted = 6001,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kMissionIdNotInRewardList = 6002,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kPlayerMissionComponentNotFound = 6003,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kMissionIdRepeated = 6004,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kConditionIdOutOfRange = 6005,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kMissionNotInProgress = 6006,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    //bag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDeleteItemFindGuid = 7000,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDeleteItemAlreadyHasGuid = 7001,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagAddItemHasNotBaseComponent = 7002,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagAddItemInvalidGuid = 7003,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagAddItemInvalidParam = 7004,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagAddItemBagFull = 7005,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagAdequateAddItemSize = 7006,//不可叠加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagAdequateItem = 7007,//不够物品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDelItemPos = 7008,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDelItemConfig = 7009,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDelItemGuid = 7010,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDelItemFindItem = 7011,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDelItemSize = 7012,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    kBagDelItemNotAdequateSize = 7013,</t>
+    <t xml:space="preserve">    OK,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TableIdInvalidError,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InvalidTableData,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EntityNull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ServiceUnavailable,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EntityIsNull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InvalidParameter,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ServerCrashed,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountNotFound,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountPlayerFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreatePlayerUnLoadAccount,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreatePlayerConnectionHasNotAccount,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginUnLogin,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginInProgress,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginPlayerGuidError,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginEnteringGame,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginPlaying,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreatingPlayer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginWaitingEnterGame,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginEnterGameGuid,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountNameEmpty,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreateConnectionAccountEmpty,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginEnterGameConnectionAccountEmpty,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginUnknownError,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginSessionDisconnect,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginBeKickByAnOtherAccount,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneNotFound,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneNotFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneMainFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NoUse,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterGameNodeCrash,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneServerType,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneParamError,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneSceneFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneSceneNotFound,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneYouInCurrentScene,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneEnterCrossRoomScene,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneGsInfoNull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneGsFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneYourSceneIsNull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangeSceneOffLine,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangingScene,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangingGs,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueNotFound,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueComponentGsNull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueComponentEmpty,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeSceneEnQueueNotSameGs,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InvalidEnterSceneParameters,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CheckEnterSceneCreator,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamNotInApplicants,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamPlayerId,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMembersFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberInTeam,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberNotInTeam,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamKickSelf,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamKickNotLeader,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamAppointSelf,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamAppointLeaderNotLeader,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamInApplicantList,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamNotInApplicantList,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamListMaxSize,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamHasNotTeamId,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamDismissNotLeader,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberListFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamCreateTeamMaxMemberSize,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamPlayerNotFound,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionTypeAlreadyExists,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionAlreadyCompleted,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionIdNotInRewardList,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PlayerMissionComponentNotFound,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionIdRepeated,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ConditionIdOutOfRange,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionNotInProgress,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDeleteItemFindGuid,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDeleteItemAlreadyHasGuid,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemHasNotBaseComponent,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemInvalidGuid,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemInvalidParam,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemBagFull,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagItemNotStacked,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagInsufficientItems,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemPos,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemConfig,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemGuid,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemFindItem,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemSize,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ItemDeletionSizeMismatch,</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A120"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1367,13 +1307,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1457,33 +1397,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1577,299 +1517,199 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -41,6 +41,9 @@
     <t>common</t>
   </si>
   <si>
+    <t>//common</t>
+  </si>
+  <si>
     <t xml:space="preserve">    OK,</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t xml:space="preserve">    ServerCrashed,</t>
   </si>
   <si>
+    <t>//login</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginAccountNotFound,</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t xml:space="preserve">    LoginBeKickByAnOtherAccount,</t>
   </si>
   <si>
+    <t>//scene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    EnterSceneNotFound,</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
     <t xml:space="preserve">    CheckEnterSceneCreator,</t>
   </si>
   <si>
+    <t>//team</t>
+  </si>
+  <si>
     <t xml:space="preserve">    TeamNotInApplicants,</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
     <t xml:space="preserve">    TeamPlayerNotFound,</t>
   </si>
   <si>
+    <t>//mission</t>
+  </si>
+  <si>
     <t xml:space="preserve">    MissionTypeAlreadyExists,</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">    MissionNotInProgress,</t>
+  </si>
+  <si>
+    <t>//bag</t>
   </si>
   <si>
     <t xml:space="preserve">    BagDeleteItemFindGuid,</t>
@@ -1246,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1267,449 +1285,479 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -1262,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1285,478 +1285,478 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
         <v>97</v>
       </c>
     </row>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -44,286 +44,286 @@
     <t>//common</t>
   </si>
   <si>
-    <t xml:space="preserve">    OK,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TableIdInvalidError,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    InvalidTableData,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EntityNull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ServiceUnavailable,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EntityIsNull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    InvalidParameter,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ServerCrashed,</t>
+    <t xml:space="preserve">    OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TableIdInvalidError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InvalidTableData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EntityNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ServiceUnavailable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EntityIsNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InvalidParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ServerCrashed</t>
   </si>
   <si>
     <t>//login</t>
   </si>
   <si>
-    <t xml:space="preserve">    LoginAccountNotFound,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginAccountPlayerFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginCreatePlayerUnLoadAccount,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginCreatePlayerConnectionHasNotAccount,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginUnLogin,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginInProgress,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginPlayerGuidError,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginEnteringGame,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginPlaying,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginCreatingPlayer,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginWaitingEnterGame,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginEnterGameGuid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginAccountNameEmpty,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginCreateConnectionAccountEmpty,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginEnterGameConnectionAccountEmpty,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginUnknownError,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginSessionDisconnect,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoginBeKickByAnOtherAccount,</t>
+    <t xml:space="preserve">    LoginAccountNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountPlayerFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreatePlayerUnLoadAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreatePlayerConnectionHasNotAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginUnLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginInProgress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginPlayerGuidError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginEnteringGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginPlaying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreatingPlayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginWaitingEnterGame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginEnterGameGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountNameEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginCreateConnectionAccountEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginEnterGameConnectionAccountEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginUnknownError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginSessionDisconnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginBeKickByAnOtherAccount</t>
   </si>
   <si>
     <t>//scene</t>
   </si>
   <si>
-    <t xml:space="preserve">    EnterSceneNotFound,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneNotFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneMainFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NoUse,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterGameNodeCrash,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneServerType,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneParamError,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneSceneFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneSceneNotFound,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneYouInCurrentScene,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneEnterCrossRoomScene,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneGsInfoNull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneGsFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneYourSceneIsNull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneChangeSceneOffLine,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneChangingScene,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneChangingGs,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueNotFound,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueComponentGsNull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueComponentEmpty,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeSceneEnQueueNotSameGs,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    InvalidEnterSceneParameters,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CheckEnterSceneCreator,</t>
+    <t xml:space="preserve">    EnterSceneNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneNotFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneMainFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NoUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterGameNodeCrash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneServerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneParamError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneSceneFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneSceneNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneYouInCurrentScene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneEnterCrossRoomScene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneGsInfoNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneGsFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneYourSceneIsNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangeSceneOffLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangingScene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangingGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueComponentGsNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueComponentEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeSceneEnQueueNotSameGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InvalidEnterSceneParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CheckEnterSceneCreator</t>
   </si>
   <si>
     <t>//team</t>
   </si>
   <si>
-    <t xml:space="preserve">    TeamNotInApplicants,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamPlayerId,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMembersFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMemberInTeam,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMemberNotInTeam,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamKickSelf,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamKickNotLeader,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamAppointSelf,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamAppointLeaderNotLeader,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamInApplicantList,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamNotInApplicantList,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamListMaxSize,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamHasNotTeamId,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamDismissNotLeader,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMemberListFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamCreateTeamMaxMemberSize,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamPlayerNotFound,</t>
+    <t xml:space="preserve">    TeamNotInApplicants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamPlayerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMembersFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberInTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberNotInTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamKickSelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamKickNotLeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamAppointSelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamAppointLeaderNotLeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamInApplicantList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamNotInApplicantList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamListMaxSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamHasNotTeamId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamDismissNotLeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberListFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamCreateTeamMaxMemberSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamPlayerNotFound</t>
   </si>
   <si>
     <t>//mission</t>
   </si>
   <si>
-    <t xml:space="preserve">    MissionTypeAlreadyExists,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionAlreadyCompleted,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionIdNotInRewardList,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    PlayerMissionComponentNotFound,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionIdRepeated,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ConditionIdOutOfRange,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionNotInProgress,</t>
+    <t xml:space="preserve">    MissionTypeAlreadyExists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionAlreadyCompleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionIdNotInRewardList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PlayerMissionComponentNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionIdRepeated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ConditionIdOutOfRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionNotInProgress</t>
   </si>
   <si>
     <t>//bag</t>
   </si>
   <si>
-    <t xml:space="preserve">    BagDeleteItemFindGuid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDeleteItemAlreadyHasGuid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemHasNotBaseComponent,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemInvalidGuid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemInvalidParam,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemBagFull,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagItemNotStacked,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagInsufficientItems,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemPos,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemConfig,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemGuid,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemFindItem,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemSize,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ItemDeletionSizeMismatch,</t>
+    <t xml:space="preserve">    BagDeleteItemFindGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDeleteItemAlreadyHasGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemHasNotBaseComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemInvalidGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemInvalidParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemBagFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagItemNotStacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagInsufficientItems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemFindItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ItemDeletionSizeMismatch</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:A102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,86 +30,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>commen</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>common</t>
   </si>
   <si>
+    <t>design</t>
+  </si>
+  <si>
     <t>//common</t>
   </si>
   <si>
     <t xml:space="preserve">    OK</t>
   </si>
   <si>
+    <t>成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">    TableIdInvalidError</t>
   </si>
   <si>
+    <t>表id无效</t>
+  </si>
+  <si>
     <t xml:space="preserve">    InvalidTableData</t>
   </si>
   <si>
-    <t xml:space="preserve">    EntityNull</t>
+    <t>表数据错误</t>
   </si>
   <si>
     <t xml:space="preserve">    ServiceUnavailable</t>
   </si>
   <si>
+    <t>服务不可用</t>
+  </si>
+  <si>
     <t xml:space="preserve">    EntityIsNull</t>
   </si>
   <si>
+    <t>未找到实体</t>
+  </si>
+  <si>
     <t xml:space="preserve">    InvalidParameter</t>
   </si>
   <si>
+    <t>参数无效</t>
+  </si>
+  <si>
     <t xml:space="preserve">    ServerCrashed</t>
   </si>
   <si>
+    <t>服务器已经崩溃</t>
+  </si>
+  <si>
     <t>//login</t>
   </si>
   <si>
     <t xml:space="preserve">    LoginAccountNotFound</t>
   </si>
   <si>
+    <t>账号未找到</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginAccountPlayerFull</t>
   </si>
   <si>
+    <t>账号角色数据已经满了</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginCreatePlayerUnLoadAccount</t>
   </si>
   <si>
+    <t>创建角色时候玩家账号未加载</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginCreatePlayerConnectionHasNotAccount</t>
   </si>
   <si>
     <t xml:space="preserve">    LoginUnLogin</t>
   </si>
   <si>
+    <t>未登录</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginInProgress</t>
   </si>
   <si>
+    <t>登录中</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginPlayerGuidError</t>
   </si>
   <si>
+    <t>登录时候玩家id错误</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginEnteringGame</t>
   </si>
   <si>
+    <t>正在进入游戏</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginPlaying</t>
   </si>
   <si>
+    <t>正在游戏中</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginCreatingPlayer</t>
   </si>
   <si>
+    <t>正在创建角色</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginWaitingEnterGame</t>
   </si>
   <si>
+    <t>等待进入游戏</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginEnterGameGuid</t>
   </si>
   <si>
+    <t>进入游戏角色id不正确</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginAccountNameEmpty</t>
   </si>
   <si>
+    <t>账号是空</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginCreateConnectionAccountEmpty</t>
   </si>
   <si>
@@ -119,6 +179,9 @@
     <t xml:space="preserve">    LoginUnknownError</t>
   </si>
   <si>
+    <t>登录未知错误</t>
+  </si>
+  <si>
     <t xml:space="preserve">    LoginSessionDisconnect</t>
   </si>
   <si>
@@ -131,21 +194,30 @@
     <t xml:space="preserve">    EnterSceneNotFound</t>
   </si>
   <si>
+    <t>想进入的场景未找到</t>
+  </si>
+  <si>
     <t xml:space="preserve">    EnterSceneNotFull</t>
   </si>
   <si>
     <t xml:space="preserve">    EnterSceneMainFull</t>
   </si>
   <si>
-    <t xml:space="preserve">    NoUse</t>
+    <t>主场景已经满了</t>
   </si>
   <si>
     <t xml:space="preserve">    EnterGameNodeCrash</t>
   </si>
   <si>
+    <t>进入的游戏节点已经满了</t>
+  </si>
+  <si>
     <t xml:space="preserve">    EnterSceneServerType</t>
   </si>
   <si>
+    <t>服务器未找到</t>
+  </si>
+  <si>
     <t xml:space="preserve">    EnterSceneParamError</t>
   </si>
   <si>
@@ -324,6 +396,15 @@
   </si>
   <si>
     <t xml:space="preserve">    ItemDeletionSizeMismatch</t>
+  </si>
+  <si>
+    <t>//ability</t>
+  </si>
+  <si>
+    <t>AbilityUninterruptible</t>
+  </si>
+  <si>
+    <t>技能不能被打断</t>
   </si>
 </sst>
 </file>
@@ -336,8 +417,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -809,138 +898,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1262,502 +1354,589 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -47,7 +47,7 @@
     <t>design</t>
   </si>
   <si>
-    <t>//common</t>
+    <t>//common_errro</t>
   </si>
   <si>
     <t xml:space="preserve">    OK</t>
@@ -92,7 +92,7 @@
     <t>服务器已经崩溃</t>
   </si>
   <si>
-    <t>//login</t>
+    <t>//login_error</t>
   </si>
   <si>
     <t xml:space="preserve">    LoginAccountNotFound</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">    LoginBeKickByAnOtherAccount</t>
   </si>
   <si>
-    <t>//scene</t>
+    <t>//scene_error</t>
   </si>
   <si>
     <t xml:space="preserve">    EnterSceneNotFound</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">    CheckEnterSceneCreator</t>
   </si>
   <si>
-    <t>//team</t>
+    <t>//team_error</t>
   </si>
   <si>
     <t xml:space="preserve">    TeamNotInApplicants</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">    TeamPlayerNotFound</t>
   </si>
   <si>
-    <t>//mission</t>
+    <t>//mission_error</t>
   </si>
   <si>
     <t xml:space="preserve">    MissionTypeAlreadyExists</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">    MissionNotInProgress</t>
   </si>
   <si>
-    <t>//bag</t>
+    <t>//bag_error</t>
   </si>
   <si>
     <t xml:space="preserve">    BagDeleteItemFindGuid</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">    ItemDeletionSizeMismatch</t>
   </si>
   <si>
-    <t>//ability</t>
+    <t>//ability_error</t>
   </si>
   <si>
     <t>AbilityUninterruptible</t>
@@ -1356,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -47,7 +47,7 @@
     <t>design</t>
   </si>
   <si>
-    <t>//common_errro</t>
+    <t>//common_error</t>
   </si>
   <si>
     <t xml:space="preserve">    OK</t>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24610" windowHeight="11890"/>
+    <workbookView windowWidth="11610" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -56,7 +56,7 @@
     <t>成功</t>
   </si>
   <si>
-    <t xml:space="preserve">    TableIdInvalidError</t>
+    <t xml:space="preserve">    InvalidTableId</t>
   </si>
   <si>
     <t>表id无效</t>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>技能不能被打断</t>
+  </si>
+  <si>
+    <t>AbilityInvalidTargetId</t>
+  </si>
+  <si>
+    <t>目标id错误</t>
+  </si>
+  <si>
+    <t>AbilityInvalidTarget</t>
+  </si>
+  <si>
+    <t>未找到释放目标</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1116,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1354,13 +1366,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1937,6 +1949,22 @@
       </c>
       <c r="B102" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11610" windowHeight="9540"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <t>//ability_error</t>
   </si>
   <si>
-    <t>AbilityUninterruptible</t>
+    <t>AbilityUnInterruptible</t>
   </si>
   <si>
     <t>技能不能被打断</t>
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="A105" sqref="$A105:$XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25050" windowHeight="9920"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">    LoginBeKickByAnOtherAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginSessionIdNotFound</t>
   </si>
   <si>
     <t>//scene_error</t>
@@ -1116,7 +1119,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1366,13 +1369,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A105" sqref="$A105:$XFD105"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1601,45 +1604,45 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1943,28 +1946,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>123</v>
       </c>
-      <c r="B102" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" t="s">
         <v>125</v>
-      </c>
-      <c r="B103" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" t="s">
         <v>127</v>
       </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25050" windowHeight="9920"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>未找到释放目标</t>
+  </si>
+  <si>
+    <t>AbilityCooldownNotReady</t>
+  </si>
+  <si>
+    <t>技能冷却尚未完成，无法使用技能</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1975,6 +1981,14 @@
         <v>129</v>
       </c>
     </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -426,6 +426,21 @@
   </si>
   <si>
     <t>技能冷却尚未完成，无法使用技能</t>
+  </si>
+  <si>
+    <t>//buff_error</t>
+  </si>
+  <si>
+    <t>BuffMaxBuffStack</t>
+  </si>
+  <si>
+    <t>buff层数已经最大</t>
+  </si>
+  <si>
+    <t>BuffTargetImmuneToBuff</t>
+  </si>
+  <si>
+    <t>目标免疫buff</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1140,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1375,13 +1390,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1987,6 +2002,27 @@
       </c>
       <c r="B106" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1390,13 +1390,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1422,606 +1422,606 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>126</v>
-      </c>
-      <c r="B104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>128</v>
-      </c>
-      <c r="B105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>130</v>
-      </c>
-      <c r="B106" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>133</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B118" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>135</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B119" t="s">
         <v>136</v>
       </c>
     </row>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24500" windowHeight="10140"/>
+    <workbookView windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -401,28 +401,28 @@
     <t xml:space="preserve">    ItemDeletionSizeMismatch</t>
   </si>
   <si>
-    <t>//ability_error</t>
-  </si>
-  <si>
-    <t>AbilityUnInterruptible</t>
+    <t>//skill_error</t>
+  </si>
+  <si>
+    <t>SkillUnInterruptible</t>
   </si>
   <si>
     <t>技能不能被打断</t>
   </si>
   <si>
-    <t>AbilityInvalidTargetId</t>
+    <t>SkillInvalidTargetId</t>
   </si>
   <si>
     <t>目标id错误</t>
   </si>
   <si>
-    <t>AbilityInvalidTarget</t>
+    <t>SkillInvalidTarget</t>
   </si>
   <si>
     <t>未找到释放目标</t>
   </si>
   <si>
-    <t>AbilityCooldownNotReady</t>
+    <t>SkillCooldownNotReady</t>
   </si>
   <si>
     <t>技能冷却尚未完成，无法使用技能</t>
@@ -1392,8 +1392,8 @@
   <sheetPr/>
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16660"/>
+    <workbookView windowWidth="14550" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -398,7 +398,10 @@
     <t xml:space="preserve">    BagDelItemSize</t>
   </si>
   <si>
-    <t xml:space="preserve">    ItemDeletionSizeMismatch</t>
+    <t xml:space="preserve">    BagItemDeletionSizeMismatch</t>
+  </si>
+  <si>
+    <t>BagInsufficientBagSpace</t>
   </si>
   <si>
     <t>//skill_error</t>
@@ -1140,7 +1143,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1390,13 +1393,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1972,57 +1975,62 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>124</v>
       </c>
-      <c r="B113" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
         <v>126</v>
-      </c>
-      <c r="B114" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
         <v>128</v>
-      </c>
-      <c r="B115" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
         <v>130</v>
       </c>
-      <c r="B116" t="s">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>133</v>
       </c>
-      <c r="B118" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" t="s">
         <v>135</v>
       </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14550" windowHeight="8715"/>
+    <workbookView windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -401,31 +401,31 @@
     <t xml:space="preserve">    BagItemDeletionSizeMismatch</t>
   </si>
   <si>
-    <t>BagInsufficientBagSpace</t>
+    <t xml:space="preserve">    BagInsufficientBagSpace</t>
   </si>
   <si>
     <t>//skill_error</t>
   </si>
   <si>
-    <t>SkillUnInterruptible</t>
+    <t xml:space="preserve">    SkillUnInterruptible</t>
   </si>
   <si>
     <t>技能不能被打断</t>
   </si>
   <si>
-    <t>SkillInvalidTargetId</t>
+    <t xml:space="preserve">    SkillInvalidTargetId</t>
   </si>
   <si>
     <t>目标id错误</t>
   </si>
   <si>
-    <t>SkillInvalidTarget</t>
+    <t xml:space="preserve">    SkillInvalidTarget</t>
   </si>
   <si>
     <t>未找到释放目标</t>
   </si>
   <si>
-    <t>SkillCooldownNotReady</t>
+    <t xml:space="preserve">    SkillCooldownNotReady</t>
   </si>
   <si>
     <t>技能冷却尚未完成，无法使用技能</t>
@@ -434,13 +434,13 @@
     <t>//buff_error</t>
   </si>
   <si>
-    <t>BuffMaxBuffStack</t>
+    <t xml:space="preserve">    BuffMaxBuffStack</t>
   </si>
   <si>
     <t>buff层数已经最大</t>
   </si>
   <si>
-    <t>BuffTargetImmuneToBuff</t>
+    <t xml:space="preserve">    BuffTargetImmuneToBuff</t>
   </si>
   <si>
     <t>目标免疫buff</t>
@@ -1143,7 +1143,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1395,11 +1395,11 @@
   <sheetPr/>
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16660"/>
+    <workbookView windowWidth="14790" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>目标免疫buff</t>
+  </si>
+  <si>
+    <t>//entity_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EntityTransformNotFound</t>
+  </si>
+  <si>
+    <t>未找到实体的Transfor组件</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1152,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1393,13 +1402,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -2031,6 +2040,19 @@
       </c>
       <c r="B120" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14790" windowHeight="9300"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>技能冷却尚未完成，无法使用技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SkillCannotBeCastInCurrentState</t>
+  </si>
+  <si>
+    <t>当前状态不能释放该技能</t>
   </si>
   <si>
     <t>//buff_error</t>
@@ -1402,10 +1408,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2021,16 +2027,16 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="B118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>134</v>
-      </c>
-      <c r="B119" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2042,17 +2048,25 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>139</v>
-      </c>
-      <c r="B122" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
   <si>
     <t>name</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>当前状态不能释放该技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SkillCannotBeCastSilenceRestriction</t>
+  </si>
+  <si>
+    <t>当前沉默状态不能释放该技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SkillCannotBeCastStunRestriction</t>
+  </si>
+  <si>
+    <t>当前眩晕状态不能释放该技能</t>
   </si>
   <si>
     <t>//buff_error</t>
@@ -1408,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2035,38 +2047,54 @@
         <v>134</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>135</v>
       </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>138</v>
-      </c>
-      <c r="B121" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>140</v>
       </c>
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
   <si>
     <t>name</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>未找到实体的Transfor组件</t>
+  </si>
+  <si>
+    <t>//actor_action_error</t>
+  </si>
+  <si>
+    <t>ActorActionStateActionCannotBePerformedWhileInTeamFollowMode</t>
+  </si>
+  <si>
+    <t>正在组队跟随中</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2097,6 +2106,19 @@
         <v>146</v>
       </c>
     </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -50,7 +50,7 @@
     <t>//common_error</t>
   </si>
   <si>
-    <t xml:space="preserve">    OK</t>
+    <t xml:space="preserve">    Success</t>
   </si>
   <si>
     <t>成功</t>
@@ -1431,8 +1431,8 @@
   <sheetPr/>
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
   <si>
     <t>name</t>
   </si>
@@ -480,6 +480,15 @@
   </si>
   <si>
     <t>正在组队跟随中</t>
+  </si>
+  <si>
+    <t>//mount_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MountNotMounted</t>
+  </si>
+  <si>
+    <t>当前不在坐骑上</t>
   </si>
 </sst>
 </file>
@@ -1429,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2119,6 +2128,19 @@
         <v>149</v>
       </c>
     </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
   <si>
     <t>name</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>服务器已经崩溃</t>
+  </si>
+  <si>
+    <t>ThisEntityIsInvalid</t>
+  </si>
+  <si>
+    <t>该实体已经不存在</t>
   </si>
   <si>
     <t>//login_error</t>
@@ -1188,7 +1194,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1438,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1531,16 +1537,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1565,15 +1571,15 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1640,62 +1646,62 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1715,321 +1721,321 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2081,16 +2087,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="B121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>140</v>
-      </c>
-      <c r="B122" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2102,43 +2108,51 @@
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>145</v>
-      </c>
-      <c r="B125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="B126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="B128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>151</v>
-      </c>
-      <c r="B129" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
   <si>
     <t>name</t>
   </si>
@@ -92,6 +92,12 @@
     <t>服务器已经崩溃</t>
   </si>
   <si>
+    <t xml:space="preserve">   IndexOutOfRange</t>
+  </si>
+  <si>
+    <t>下标超出范围</t>
+  </si>
+  <si>
     <t>ThisEntityIsInvalid</t>
   </si>
   <si>
@@ -495,6 +501,15 @@
   </si>
   <si>
     <t>当前不在坐骑上</t>
+  </si>
+  <si>
+    <t>//reward_error</t>
+  </si>
+  <si>
+    <t>RewardAlreadyClaimed</t>
+  </si>
+  <si>
+    <t>该奖励已经领取过了</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1209,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1444,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1545,16 +1560,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1579,15 +1594,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1654,62 +1669,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1729,321 +1744,321 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>127</v>
-      </c>
-      <c r="B115" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2095,16 +2110,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="B122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2116,43 +2131,64 @@
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="B125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>150</v>
-      </c>
-      <c r="B128" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>153</v>
-      </c>
-      <c r="B130" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="13170" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>下标超出范围</t>
+  </si>
+  <si>
+    <t>RateLimitExceeded</t>
+  </si>
+  <si>
+    <t>发送太频繁了</t>
   </si>
   <si>
     <t>ThisEntityIsInvalid</t>
@@ -1459,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1568,16 +1574,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1602,15 +1608,15 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1677,62 +1683,62 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1752,321 +1758,321 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>67</v>
       </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2118,16 +2124,16 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="B123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2139,56 +2145,64 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="B126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>149</v>
-      </c>
-      <c r="B127" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="B130" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>155</v>
-      </c>
-      <c r="B131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="B132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>158</v>
-      </c>
-      <c r="B133" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>160</v>
+      </c>
+      <c r="B134" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>该实体已经不存在</t>
+  </si>
+  <si>
+    <t>MessageSizeExceeded</t>
+  </si>
+  <si>
+    <t>发送的消息包太大了</t>
   </si>
   <si>
     <t>//login_error</t>
@@ -1465,10 +1471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1582,16 +1588,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1616,15 +1622,15 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1691,62 +1697,62 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1766,321 +1772,321 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>69</v>
       </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2132,16 +2138,16 @@
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2153,56 +2159,64 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>151</v>
-      </c>
-      <c r="B128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="B129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>154</v>
-      </c>
-      <c r="B130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="B131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>157</v>
-      </c>
-      <c r="B132" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="B133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>160</v>
-      </c>
-      <c r="B134" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>发送的消息包太大了</t>
+  </si>
+  <si>
+    <t>SessionNotFound</t>
+  </si>
+  <si>
+    <t>当会话未找到时</t>
+  </si>
+  <si>
+    <t>PlayerNotFoundInSession</t>
+  </si>
+  <si>
+    <t>会话玩家未找到</t>
+  </si>
+  <si>
+    <t>MessageIdNotFound</t>
+  </si>
+  <si>
+    <t>消息ID不存在</t>
+  </si>
+  <si>
+    <t>RequestMessageParseError</t>
+  </si>
+  <si>
+    <t>请求消息解析错误，请检查</t>
+  </si>
+  <si>
+    <t>ArraySizeTooLargeInMessage</t>
+  </si>
+  <si>
+    <t>消息中数组变量过大</t>
+  </si>
+  <si>
+    <t>ResponseMessageParseError</t>
+  </si>
+  <si>
+    <t>返回消息解析错误，请检查</t>
   </si>
   <si>
     <t>//login_error</t>
@@ -1471,10 +1507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A36" sqref="$A36:$XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1596,89 +1632,89 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
         <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1705,436 +1741,436 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>135</v>
-      </c>
-      <c r="B119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>137</v>
-      </c>
-      <c r="B120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>139</v>
-      </c>
-      <c r="B121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>141</v>
-      </c>
-      <c r="B122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2146,77 +2182,125 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>147</v>
       </c>
+      <c r="B125" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B128" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>157</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>156</v>
-      </c>
-      <c r="B131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="B132" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
   <si>
     <t>name</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>返回消息解析错误，请检查</t>
+  </si>
+  <si>
+    <t>NegativeValueInMessage</t>
+  </si>
+  <si>
+    <t>请求消息检测到负数</t>
   </si>
   <si>
     <t>//login_error</t>
@@ -1507,10 +1513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A36" sqref="$A36:$XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1680,16 +1686,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1714,15 +1720,15 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
         <v>48</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1789,62 +1795,62 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>66</v>
       </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1864,321 +1870,321 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>83</v>
       </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2230,16 +2236,16 @@
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="B131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>160</v>
-      </c>
-      <c r="B132" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2251,56 +2257,64 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="B134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>165</v>
-      </c>
-      <c r="B135" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="B136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>168</v>
-      </c>
-      <c r="B137" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="B138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>171</v>
-      </c>
-      <c r="B139" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="B140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>174</v>
-      </c>
-      <c r="B141" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>176</v>
+      </c>
+      <c r="B142" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="5880"/>
+    <workbookView windowWidth="24180" windowHeight="11950"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="180">
   <si>
     <t>name</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>请求消息检测到负数</t>
+  </si>
+  <si>
+    <t>FailedToRegisterTheNode</t>
+  </si>
+  <si>
+    <t>节点未注册成功</t>
   </si>
   <si>
     <t>//login_error</t>
@@ -1263,7 +1269,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1513,13 +1519,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1694,16 +1700,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1728,15 +1734,15 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
         <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1803,62 +1809,62 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>72</v>
       </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1878,321 +1884,321 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>147</v>
-      </c>
-      <c r="B125" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2244,16 +2250,16 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>162</v>
-      </c>
-      <c r="B133" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2265,56 +2271,64 @@
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="B137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>170</v>
-      </c>
-      <c r="B138" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="B139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>173</v>
-      </c>
-      <c r="B140" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="B141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>176</v>
-      </c>
-      <c r="B142" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="11950"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
   <si>
     <t>name</t>
   </si>
@@ -261,6 +261,21 @@
   </si>
   <si>
     <t xml:space="preserve">    LoginSessionIdNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LoginFsmFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LoginDataSerializeFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LoginRedisError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LoginDataParseFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LoginRedisSetFailed</t>
   </si>
   <si>
     <t>//scene_error</t>
@@ -1259,6 +1274,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1519,10 +1541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1850,70 +1872,70 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" ht="20" customHeight="1" spans="1:1">
       <c r="A58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" ht="20" customHeight="1" spans="1:1">
       <c r="A59" t="s">
         <v>78</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:1">
+      <c r="A60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" ht="20" customHeight="1" spans="1:1">
+      <c r="A61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="62" ht="20" customHeight="1" spans="1:1">
+      <c r="A62" t="s">
         <v>81</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="63" ht="20" customHeight="1" spans="1:1">
+      <c r="A63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="64" ht="20" customHeight="1" spans="1:2">
+      <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="65" ht="20" customHeight="1" spans="1:1">
+      <c r="A65" t="s">
         <v>85</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2202,133 +2224,158 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>149</v>
       </c>
-      <c r="B126" t="s">
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
         <v>151</v>
       </c>
-      <c r="B127" t="s">
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
         <v>153</v>
-      </c>
-      <c r="B128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>155</v>
-      </c>
-      <c r="B129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B132" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="B133" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="B136" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" t="s">
         <v>172</v>
       </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B142" t="s">
         <v>175</v>
       </c>
-      <c r="B141" t="s">
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B144" t="s">
         <v>178</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>183</v>
+      </c>
+      <c r="B148" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="27040" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
   <si>
     <t>name</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">    CheckEnterSceneCreator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneFailed</t>
   </si>
   <si>
     <t>//team_error</t>
@@ -1541,10 +1544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -2249,133 +2252,138 @@
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>154</v>
       </c>
-      <c r="B131" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" t="s">
         <v>156</v>
-      </c>
-      <c r="B132" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" t="s">
         <v>158</v>
-      </c>
-      <c r="B133" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" t="s">
         <v>160</v>
-      </c>
-      <c r="B134" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
+        <v>161</v>
+      </c>
+      <c r="B135" t="s">
         <v>162</v>
-      </c>
-      <c r="B135" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>163</v>
+      </c>
+      <c r="B136" t="s">
         <v>164</v>
-      </c>
-      <c r="B136" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" t="s">
         <v>166</v>
       </c>
-      <c r="B137" t="s">
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>169</v>
       </c>
-      <c r="B139" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" t="s">
         <v>171</v>
       </c>
-      <c r="B140" t="s">
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>174</v>
       </c>
-      <c r="B142" t="s">
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>177</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>180</v>
       </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>183</v>
       </c>
-      <c r="B148" t="s">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>184</v>
+      </c>
+      <c r="B149" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>name</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t xml:space="preserve">   LoginRedisSetFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TooManyDevices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginFSMLoadFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginFSMEventFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountDataLoadFaile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginSessionNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginAccountDataLoadFailed</t>
   </si>
   <si>
     <t>//scene_error</t>
@@ -1277,13 +1295,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1900,75 +1911,75 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" ht="20" customHeight="1" spans="1:1">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" ht="20" customHeight="1" spans="1:2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" ht="20" customHeight="1" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>86</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="69" ht="20" customHeight="1" spans="1:1">
+      <c r="A69" t="s">
         <v>88</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="70" ht="20" customHeight="1" spans="1:2">
+      <c r="A70" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B70" t="s">
         <v>90</v>
       </c>
-      <c r="B68" t="s">
+    </row>
+    <row r="71" ht="20" customHeight="1" spans="1:1">
+      <c r="A71" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B73" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2257,133 +2268,163 @@
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>155</v>
       </c>
-      <c r="B132" t="s">
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
         <v>157</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
         <v>159</v>
       </c>
-      <c r="B134" t="s">
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>161</v>
-      </c>
-      <c r="B135" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>163</v>
-      </c>
-      <c r="B136" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>165</v>
-      </c>
-      <c r="B137" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="B139" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="B142" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
         <v>175</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B146" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>178</v>
-      </c>
-      <c r="B145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B147" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>184</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B151" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>187</v>
+      </c>
+      <c r="B153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>name</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t xml:space="preserve">    LoginAccountDataLoadFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoginFsmInvalidEvent</t>
   </si>
   <si>
     <t>//scene_error</t>
@@ -1555,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1941,50 +1944,50 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" ht="20" customHeight="1" spans="1:1">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" ht="20" customHeight="1" spans="1:2">
+    <row r="70" ht="20" customHeight="1" spans="1:1">
       <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" ht="20" customHeight="1" spans="1:2">
+      <c r="A71" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" ht="20" customHeight="1" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" ht="20" customHeight="1" spans="1:1">
       <c r="A72" t="s">
         <v>92</v>
       </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
         <v>94</v>
-      </c>
-      <c r="B73" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" t="s">
         <v>96</v>
       </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2298,133 +2301,138 @@
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>161</v>
       </c>
-      <c r="B138" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" t="s">
         <v>163</v>
-      </c>
-      <c r="B139" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" t="s">
         <v>165</v>
-      </c>
-      <c r="B140" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" t="s">
         <v>167</v>
-      </c>
-      <c r="B141" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" t="s">
         <v>169</v>
-      </c>
-      <c r="B142" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143" t="s">
         <v>171</v>
-      </c>
-      <c r="B143" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" t="s">
         <v>173</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>176</v>
       </c>
-      <c r="B146" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" t="s">
         <v>178</v>
       </c>
-      <c r="B147" t="s">
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>181</v>
       </c>
-      <c r="B149" t="s">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>184</v>
       </c>
-      <c r="B151" t="s">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>187</v>
       </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>190</v>
       </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>191</v>
+      </c>
+      <c r="B156" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27040" windowHeight="17200"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Tip" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>name</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">    LoginFsmInvalidEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SceneTransferInProgress</t>
   </si>
   <si>
     <t>//scene_error</t>
@@ -1558,10 +1561,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1949,50 +1952,50 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" ht="20" customHeight="1" spans="1:1">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:2">
+    <row r="71" ht="20" customHeight="1" spans="1:1">
       <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" ht="20" customHeight="1" spans="1:2">
+      <c r="A72" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" ht="20" customHeight="1" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" ht="20" customHeight="1" spans="1:1">
       <c r="A73" t="s">
         <v>93</v>
       </c>
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
         <v>95</v>
-      </c>
-      <c r="B74" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
         <v>97</v>
       </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2306,133 +2309,138 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>162</v>
       </c>
-      <c r="B139" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" t="s">
         <v>164</v>
-      </c>
-      <c r="B140" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" t="s">
         <v>166</v>
-      </c>
-      <c r="B141" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" t="s">
         <v>168</v>
-      </c>
-      <c r="B142" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" t="s">
         <v>170</v>
-      </c>
-      <c r="B143" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" t="s">
         <v>172</v>
-      </c>
-      <c r="B144" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" t="s">
         <v>174</v>
       </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>177</v>
       </c>
-      <c r="B147" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" t="s">
         <v>179</v>
       </c>
-      <c r="B148" t="s">
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>182</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>185</v>
       </c>
-      <c r="B152" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>188</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>191</v>
       </c>
-      <c r="B156" t="s">
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>192</v>
+      </c>
+      <c r="B157" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/tip/Tip.xlsx
+++ b/bin/config/xlsx/tip/Tip.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="195">
   <si>
     <t>name</t>
   </si>
@@ -299,319 +299,322 @@
     <t xml:space="preserve">    LoginFsmInvalidEvent</t>
   </si>
   <si>
+    <t>//scene_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneNotFound</t>
+  </si>
+  <si>
+    <t>想进入的场景未找到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneNotFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneMainFull</t>
+  </si>
+  <si>
+    <t>主场景已经满了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterGameNodeCrash</t>
+  </si>
+  <si>
+    <t>进入的游戏节点已经满了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneServerType</t>
+  </si>
+  <si>
+    <t>服务器未找到</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneParamError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneSceneFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneSceneNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneYouInCurrentScene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneEnterCrossRoomScene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneGsInfoNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneGsFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneYourSceneIsNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangeSceneOffLine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangingScene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneChangingGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueComponentGsNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeScenePlayerQueueComponentEmpty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ChangeSceneEnQueueNotSameGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    InvalidEnterSceneParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CheckEnterSceneCreator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EnterSceneFailed</t>
+  </si>
+  <si>
+    <t>//team_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamNotInApplicants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamPlayerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMembersFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberInTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberNotInTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamKickSelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamKickNotLeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamAppointSelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamAppointLeaderNotLeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamInApplicantList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamNotInApplicantList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamListMaxSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamHasNotTeamId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamDismissNotLeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamMemberListFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamCreateTeamMaxMemberSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TeamPlayerNotFound</t>
+  </si>
+  <si>
+    <t>//mission_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionTypeAlreadyExists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionAlreadyCompleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionIdNotInRewardList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PlayerMissionComponentNotFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionIdRepeated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ConditionIdOutOfRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MissionNotInProgress</t>
+  </si>
+  <si>
+    <t>//bag_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDeleteItemFindGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDeleteItemAlreadyHasGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemHasNotBaseComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemInvalidGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemInvalidParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagAddItemBagFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagItemNotStacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagInsufficientItems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemConfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemGuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemFindItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagDelItemSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagItemDeletionSizeMismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BagInsufficientBagSpace</t>
+  </si>
+  <si>
+    <t>//skill_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SkillUnInterruptible</t>
+  </si>
+  <si>
+    <t>技能不能被打断</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SkillInvalidTargetId</t>
+  </si>
+  <si>
+    <t>目标id错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SkillInvalidTarget</t>
+  </si>
+  <si>
+    <t>未找到释放目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SkillCooldownNotReady</t>
+  </si>
+  <si>
+    <t>技能冷却尚未完成，无法使用技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SkillCannotBeCastInCurrentState</t>
+  </si>
+  <si>
+    <t>当前状态不能释放该技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SkillCannotBeCastSilenceRestriction</t>
+  </si>
+  <si>
+    <t>当前沉默状态不能释放该技能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SkillCannotBeCastStunRestriction</t>
+  </si>
+  <si>
+    <t>当前眩晕状态不能释放该技能</t>
+  </si>
+  <si>
+    <t>//buff_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BuffMaxBuffStack</t>
+  </si>
+  <si>
+    <t>buff层数已经最大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BuffTargetImmuneToBuff</t>
+  </si>
+  <si>
+    <t>目标免疫buff</t>
+  </si>
+  <si>
+    <t>//entity_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EntityTransformNotFound</t>
+  </si>
+  <si>
+    <t>未找到实体的Transfor组件</t>
+  </si>
+  <si>
+    <t>//actor_action_error</t>
+  </si>
+  <si>
+    <t>ActorActionStateActionCannotBePerformedWhileInTeamFollowMode</t>
+  </si>
+  <si>
+    <t>正在组队跟随中</t>
+  </si>
+  <si>
+    <t>//mount_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MountNotMounted</t>
+  </si>
+  <si>
+    <t>当前不在坐骑上</t>
+  </si>
+  <si>
+    <t>//reward_error</t>
+  </si>
+  <si>
+    <t>RewardAlreadyClaimed</t>
+  </si>
+  <si>
+    <t>该奖励已经领取过了</t>
+  </si>
+  <si>
+    <t>//cross_server_error</t>
+  </si>
+  <si>
     <t xml:space="preserve">    SceneTransferInProgress</t>
-  </si>
-  <si>
-    <t>//scene_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneNotFound</t>
-  </si>
-  <si>
-    <t>想进入的场景未找到</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneNotFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneMainFull</t>
-  </si>
-  <si>
-    <t>主场景已经满了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterGameNodeCrash</t>
-  </si>
-  <si>
-    <t>进入的游戏节点已经满了</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneServerType</t>
-  </si>
-  <si>
-    <t>服务器未找到</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneParamError</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneSceneFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneSceneNotFound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneYouInCurrentScene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneEnterCrossRoomScene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneGsInfoNull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneGsFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneYourSceneIsNull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneChangeSceneOffLine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneChangingScene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneChangingGs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueNotFound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueComponentGsNull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeScenePlayerQueueComponentEmpty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ChangeSceneEnQueueNotSameGs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    InvalidEnterSceneParameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CheckEnterSceneCreator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EnterSceneFailed</t>
-  </si>
-  <si>
-    <t>//team_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamNotInApplicants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamPlayerId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMembersFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMemberInTeam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMemberNotInTeam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamKickSelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamKickNotLeader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamAppointSelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamAppointLeaderNotLeader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamInApplicantList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamNotInApplicantList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamListMaxSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamHasNotTeamId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamDismissNotLeader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamMemberListFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamCreateTeamMaxMemberSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    TeamPlayerNotFound</t>
-  </si>
-  <si>
-    <t>//mission_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionTypeAlreadyExists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionAlreadyCompleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionIdNotInRewardList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    PlayerMissionComponentNotFound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionIdRepeated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ConditionIdOutOfRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MissionNotInProgress</t>
-  </si>
-  <si>
-    <t>//bag_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDeleteItemFindGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDeleteItemAlreadyHasGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemHasNotBaseComponent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemInvalidGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemInvalidParam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagAddItemBagFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagItemNotStacked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagInsufficientItems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemPos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemConfig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemFindItem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagDelItemSize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagItemDeletionSizeMismatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BagInsufficientBagSpace</t>
-  </si>
-  <si>
-    <t>//skill_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SkillUnInterruptible</t>
-  </si>
-  <si>
-    <t>技能不能被打断</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SkillInvalidTargetId</t>
-  </si>
-  <si>
-    <t>目标id错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SkillInvalidTarget</t>
-  </si>
-  <si>
-    <t>未找到释放目标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SkillCooldownNotReady</t>
-  </si>
-  <si>
-    <t>技能冷却尚未完成，无法使用技能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   SkillCannotBeCastInCurrentState</t>
-  </si>
-  <si>
-    <t>当前状态不能释放该技能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   SkillCannotBeCastSilenceRestriction</t>
-  </si>
-  <si>
-    <t>当前沉默状态不能释放该技能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   SkillCannotBeCastStunRestriction</t>
-  </si>
-  <si>
-    <t>当前眩晕状态不能释放该技能</t>
-  </si>
-  <si>
-    <t>//buff_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BuffMaxBuffStack</t>
-  </si>
-  <si>
-    <t>buff层数已经最大</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    BuffTargetImmuneToBuff</t>
-  </si>
-  <si>
-    <t>目标免疫buff</t>
-  </si>
-  <si>
-    <t>//entity_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EntityTransformNotFound</t>
-  </si>
-  <si>
-    <t>未找到实体的Transfor组件</t>
-  </si>
-  <si>
-    <t>//actor_action_error</t>
-  </si>
-  <si>
-    <t>ActorActionStateActionCannotBePerformedWhileInTeamFollowMode</t>
-  </si>
-  <si>
-    <t>正在组队跟随中</t>
-  </si>
-  <si>
-    <t>//mount_error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MountNotMounted</t>
-  </si>
-  <si>
-    <t>当前不在坐骑上</t>
-  </si>
-  <si>
-    <t>//reward_error</t>
-  </si>
-  <si>
-    <t>RewardAlreadyClaimed</t>
-  </si>
-  <si>
-    <t>该奖励已经领取过了</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="K146" sqref="K146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1952,50 +1955,50 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" ht="20" customHeight="1" spans="1:1">
       <c r="A70" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:1">
+    <row r="71" ht="20" customHeight="1" spans="1:2">
       <c r="A71" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="72" ht="20" customHeight="1" spans="1:2">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" spans="1:1">
       <c r="A72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" ht="20" customHeight="1" spans="1:1">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>93</v>
       </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2309,138 +2312,143 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>162</v>
       </c>
+      <c r="B139" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>175</v>
-      </c>
-      <c r="B146" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>177</v>
       </c>
+      <c r="B147" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>180</v>
-      </c>
-      <c r="B149" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="B150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>183</v>
-      </c>
-      <c r="B151" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="B152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>186</v>
-      </c>
-      <c r="B153" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="B154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>189</v>
-      </c>
-      <c r="B155" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="B156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>192</v>
-      </c>
-      <c r="B157" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
